--- a/updated tableau/topic&sector.xlsx
+++ b/updated tableau/topic&sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglingxi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuyt\Documents\GitHub\Anti-Corruption\updated tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D618C39-CDD1-944D-A96C-60EC374334F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33557AA4-63A3-4953-A3BD-E1B4F9BAE952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="15240" xr2:uid="{230D6A86-0134-554B-9D90-82AFDAAA0CED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{230D6A86-0134-554B-9D90-82AFDAAA0CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="101">
   <si>
     <t>country</t>
   </si>
@@ -337,9 +336,6 @@
   </si>
   <si>
     <t>main topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Economic Growth</t>
   </si>
 </sst>
 </file>
@@ -694,17 +690,17 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +717,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -738,7 +734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -755,7 +751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -772,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -789,7 +785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -806,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -823,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -840,7 +836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -857,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -874,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -891,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -908,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -925,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -942,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -959,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -976,7 +972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -993,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1027,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1044,7 +1040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1078,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1129,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1180,7 +1176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1197,7 +1193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1214,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1248,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1265,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1282,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1299,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1316,7 +1312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1333,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1350,7 +1346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1367,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1384,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1401,7 +1397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1418,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1435,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1469,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1477,7 +1473,7 @@
         <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
         <v>92</v>
@@ -1486,7 +1482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1503,7 +1499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1520,7 +1516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1537,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1554,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1571,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1588,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1605,7 +1601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1622,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1639,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1656,7 +1652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1673,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1690,7 +1686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1707,7 +1703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1724,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1741,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1758,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1775,7 +1771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1792,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1809,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1826,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1843,7 +1839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1860,7 +1856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1877,7 +1873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1894,7 +1890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1911,7 +1907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
